--- a/消费.xlsx
+++ b/消费.xlsx
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,28 +481,34 @@
       <c r="B2">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" si="0">SUM(B2:E2)</f>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="1">SUM(H2:K2)</f>
-        <v>108</v>
+        <f>SUM(H2:K2)</f>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L2:L33" si="1">SUM(H3:K3)</f>
         <v>0</v>
       </c>
     </row>
@@ -889,11 +895,11 @@
       </c>
       <c r="B33">
         <f>SUM(B2:B32)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <f>SUM(C2:C32)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
@@ -905,7 +911,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
@@ -917,7 +923,7 @@
       </c>
       <c r="J33">
         <f>SUM(J2:J32)</f>
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="K33">
         <f>SUM(K2:K32)</f>
@@ -925,7 +931,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/消费.xlsx
+++ b/消费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="540" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +122,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -144,7 +154,7 @@
     <tableColumn id="3" name="吃饭"/>
     <tableColumn id="4" name="购物"/>
     <tableColumn id="5" name="其他"/>
-    <tableColumn id="6" name="总计" dataDxfId="1">
+    <tableColumn id="6" name="总计" dataDxfId="3">
       <calculatedColumnFormula>SUM(B2:E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -160,8 +170,20 @@
     <tableColumn id="2" name="吃饭"/>
     <tableColumn id="3" name="购物"/>
     <tableColumn id="4" name="其他"/>
-    <tableColumn id="5" name="总计" dataDxfId="0">
+    <tableColumn id="5" name="总计" dataDxfId="2">
       <calculatedColumnFormula>SUM(H2:K2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="N1:N33" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="N1:N33"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="合计" dataDxfId="1">
+      <calculatedColumnFormula>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -431,50 +453,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -495,8 +518,12 @@
         <f>SUM(H2:K2)</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -508,11 +535,15 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L2:L33" si="1">SUM(H3:K3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L3:L33" si="1">SUM(H3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -524,8 +555,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -537,8 +572,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -550,8 +589,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -563,8 +606,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -576,8 +623,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -589,8 +640,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -602,8 +657,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -615,8 +674,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -628,8 +691,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -641,8 +708,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -654,8 +725,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -667,8 +742,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -680,8 +759,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -693,8 +776,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -706,8 +793,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -719,8 +810,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -732,8 +827,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -745,8 +844,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -758,8 +861,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -771,8 +878,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -784,8 +895,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -797,8 +912,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -810,8 +929,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -823,8 +946,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -836,8 +963,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -849,8 +980,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -862,8 +997,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -875,8 +1014,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -888,8 +1031,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,15 +1079,20 @@
       <c r="L33">
         <f t="shared" si="1"/>
         <v>260</v>
+      </c>
+      <c r="N33">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/消费.xlsx
+++ b/消费.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gm/lifeCount/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuting/lifeCount/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +122,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -144,7 +151,7 @@
     <tableColumn id="3" name="吃饭"/>
     <tableColumn id="4" name="购物"/>
     <tableColumn id="5" name="其他"/>
-    <tableColumn id="6" name="总计" dataDxfId="1">
+    <tableColumn id="6" name="总计" dataDxfId="2">
       <calculatedColumnFormula>SUM(B2:E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -153,15 +160,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="H1:L33" totalsRowShown="0">
-  <autoFilter ref="H1:L33"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="H1:M33" totalsRowShown="0">
+  <autoFilter ref="H1:M33"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="交通"/>
     <tableColumn id="2" name="吃饭"/>
     <tableColumn id="3" name="购物"/>
     <tableColumn id="4" name="其他"/>
-    <tableColumn id="5" name="总计" dataDxfId="0">
+    <tableColumn id="5" name="总计" dataDxfId="1">
       <calculatedColumnFormula>SUM(H2:K2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="列1" dataDxfId="0">
+      <calculatedColumnFormula>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -431,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,40 +483,66 @@
       <c r="L1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" si="0">SUM(B2:E2)</f>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="1">SUM(H2:K2)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="M2">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>4.2</v>
+      </c>
+      <c r="K3">
+        <v>5.8</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -518,8 +554,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -531,8 +571,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -544,8 +588,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -557,8 +605,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -570,8 +622,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -583,8 +639,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -596,8 +656,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -609,8 +673,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -622,8 +690,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -635,8 +707,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -648,8 +724,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -661,8 +741,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -674,8 +758,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -687,8 +775,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -700,8 +792,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -713,8 +809,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -726,8 +826,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -739,8 +843,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -752,8 +860,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -765,8 +877,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -778,8 +894,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -791,8 +911,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -804,8 +928,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -817,8 +945,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -830,8 +962,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -843,8 +979,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -856,8 +996,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -869,8 +1013,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -882,18 +1030,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33">
         <f>SUM(B2:B32)</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <f>SUM(C2:C32)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
@@ -905,7 +1057,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
@@ -913,19 +1065,23 @@
       </c>
       <c r="I33">
         <f>SUM(I2:I32)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J33">
         <f>SUM(J2:J32)</f>
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="K33">
         <f>SUM(K2:K32)</f>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>270</v>
+      </c>
+      <c r="M33">
+        <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/消费.xlsx
+++ b/消费.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>夜班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,6 +203,17 @@
     <tableColumn id="6" name="列1" dataDxfId="0">
       <calculatedColumnFormula>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="O1:P33" totalsRowShown="0">
+  <autoFilter ref="O1:P33"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -441,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +527,14 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -512,8 +559,14 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -541,8 +594,11 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -558,8 +614,14 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>2047.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -575,8 +637,11 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -592,8 +657,11 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -609,8 +677,14 @@
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -627,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -644,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -661,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -678,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -695,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -712,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -729,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -746,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1035,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,15 +1156,20 @@
       <c r="M33">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
         <v>342</v>
+      </c>
+      <c r="P33">
+        <f>SUM(P2:P32)</f>
+        <v>2409.13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/消费.xlsx
+++ b/消费.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,27 +78,31 @@
     <t>列2</t>
   </si>
   <si>
-    <t>夜班费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>药品提成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绩效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二次奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜班费3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生给3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本工资3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次奖金3.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +489,13 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -560,7 +567,7 @@
         <v>293</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>222</v>
@@ -595,27 +602,33 @@
         <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>697</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(H4:K4)</f>
+        <v>697</v>
       </c>
       <c r="M4">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P4">
         <v>2047.13</v>
@@ -625,60 +638,90 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>3.6</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>3.8</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>45</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M7">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P7">
         <v>140</v>
@@ -688,255 +731,357 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>65</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M10">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>3.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K13">
+        <v>4.7</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="M13">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M14">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>60</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M18">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M19">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>3.8</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>300.42</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300.42</v>
       </c>
       <c r="M22">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>0</v>
+        <v>360.42</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1115,15 +1260,15 @@
       </c>
       <c r="B33">
         <f>SUM(B2:B32)</f>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <f>SUM(C2:C32)</f>
-        <v>48</v>
+        <v>859</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="E33">
         <f>SUM(E2:E32)</f>
@@ -1131,7 +1276,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>1296</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
@@ -1143,23 +1288,23 @@
       </c>
       <c r="J33">
         <f>SUM(J2:J32)</f>
-        <v>260</v>
+        <v>278.10000000000002</v>
       </c>
       <c r="K33">
         <f>SUM(K2:K32)</f>
-        <v>5.8</v>
+        <v>1358.5200000000002</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>1640.8200000000002</v>
       </c>
       <c r="M33">
         <f>SUM(表2[[#This Row],[总计]],表4[[#This Row],[总计]])</f>
-        <v>342</v>
+        <v>2936.82</v>
       </c>
       <c r="P33">
         <f>SUM(P2:P32)</f>
-        <v>2409.13</v>
+        <v>3247.13</v>
       </c>
     </row>
   </sheetData>

--- a/消费.xlsx
+++ b/消费.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuting/lifeCount/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gm/lifeCount/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,6 +659,9 @@
       <c r="O5" t="s">
         <v>13</v>
       </c>
+      <c r="P5">
+        <v>2653</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1304,7 +1307,7 @@
       </c>
       <c r="P33">
         <f>SUM(P2:P32)</f>
-        <v>3247.13</v>
+        <v>5900.13</v>
       </c>
     </row>
   </sheetData>
